--- a/lab_06/data/link_budget.xlsx
+++ b/lab_06/data/link_budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kavidey/Sync/Mudd/FA24/E157/lab_06/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679E69EC-B3D2-6A4E-B926-6DC43050B913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB93CE07-32EA-F345-BBAE-D2C21B94F527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Stage</t>
   </si>
@@ -74,7 +74,7 @@
     <numFmt numFmtId="165" formatCode="##0.000E+0"/>
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -87,20 +87,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -130,15 +116,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,8 +343,8 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -372,19 +356,19 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="3">
         <v>600000000</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="3">
         <v>601000000</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="4">
         <v>1801000000</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="4">
         <v>1802000000</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -416,22 +400,27 @@
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <f>C2+$B$15</f>
-        <v>-18</v>
+        <f>C2+$I$3</f>
+        <v>-17.5</v>
       </c>
       <c r="D3" s="1">
-        <f>D2+$B$15</f>
-        <v>-18</v>
+        <f>D2+$I$3</f>
+        <v>-17.5</v>
       </c>
       <c r="E3" s="1">
-        <f>$B$17-3*($B$16-C3)</f>
-        <v>-80.200000000000017</v>
+        <f>$I$5-3*($I$4-C2)</f>
+        <v>-112.80000000000001</v>
       </c>
       <c r="F3" s="1">
-        <f>$B$17-3*($B$16-D3)</f>
-        <v>-80.200000000000017</v>
-      </c>
-      <c r="I3" s="1"/>
+        <f>$I$5-3*($I$4-D2)</f>
+        <v>-112.80000000000001</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>32.5</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
@@ -442,21 +431,26 @@
       </c>
       <c r="C4" s="1">
         <f>C3-1</f>
-        <v>-19</v>
+        <v>-18.5</v>
       </c>
       <c r="D4" s="1">
         <f>D3-1</f>
-        <v>-19</v>
+        <v>-18.5</v>
       </c>
       <c r="E4" s="1">
         <f>E3-1</f>
-        <v>-81.200000000000017</v>
+        <v>-113.80000000000001</v>
       </c>
       <c r="F4" s="1">
         <f>F3-1</f>
-        <v>-81.200000000000017</v>
-      </c>
-      <c r="I4" s="2"/>
+        <v>-113.80000000000001</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="5">
+        <v>-2.4</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
@@ -466,85 +460,165 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <f>C4+$B$15</f>
-        <v>13</v>
+        <f>C4+$I$3</f>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
-        <f>D4+$B$15</f>
-        <v>13</v>
+        <f>D4+$I$3</f>
+        <v>14</v>
       </c>
       <c r="E5" s="1">
-        <f>MAX($B$17-3*($B$16-C5),E4+$B$15)</f>
-        <v>12.799999999999997</v>
+        <f>$I$5-3*($I$4-C4)</f>
+        <v>-18.300000000000004</v>
       </c>
       <c r="F5" s="1">
-        <f>MAX($B$17-3*($B$16-D5),F4+$B$15)</f>
-        <v>12.799999999999997</v>
-      </c>
-      <c r="I5" s="4"/>
+        <f>$I$5-3*($I$4-D4)</f>
+        <v>-18.300000000000004</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>600000000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>601000000</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1801000000</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1802000000</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-33.5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-33.5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <f>C9+$I$3</f>
+        <v>-1</v>
+      </c>
+      <c r="D10" s="1">
+        <f>D9+$I$3</f>
+        <v>-1</v>
+      </c>
+      <c r="E10" s="1">
+        <f>$I$5-3*($I$4-C9)</f>
+        <v>-63.300000000000011</v>
+      </c>
+      <c r="F10" s="1">
+        <f>$I$5-3*($I$4-D9)</f>
+        <v>-63.300000000000011</v>
+      </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <f>C10-1</f>
+        <v>-2</v>
+      </c>
+      <c r="D11" s="1">
+        <f>D10-1</f>
+        <v>-2</v>
+      </c>
+      <c r="E11" s="1">
+        <f>E10-1</f>
+        <v>-64.300000000000011</v>
+      </c>
+      <c r="F11" s="1">
+        <f>F10-1</f>
+        <v>-64.300000000000011</v>
+      </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <f>C11+$I$3</f>
+        <v>30.5</v>
+      </c>
+      <c r="D12" s="1">
+        <f>D11+$I$3</f>
+        <v>30.5</v>
+      </c>
+      <c r="E12" s="1">
+        <f>$I$5-3*($I$4-C11)</f>
+        <v>31.2</v>
+      </c>
+      <c r="F12" s="1">
+        <f>$I$5-3*($I$4-D11)</f>
+        <v>31.2</v>
+      </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I13" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>32</v>
-      </c>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>29.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="7">
-        <v>62.6</v>
-      </c>
+      <c r="C15" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
